--- a/full_evaluation_results_s1.1.xlsx
+++ b/full_evaluation_results_s1.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,964 @@
         <v>0.5123480652561802</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20_outdoor_walk</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>39.11725997924805</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57.87547302246094</v>
+      </c>
+      <c r="E4" t="n">
+        <v>70.56053924560547</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.796956777572632</v>
+      </c>
+      <c r="G4" t="n">
+        <v>74.29533386230469</v>
+      </c>
+      <c r="H4" t="n">
+        <v>265.7325744628906</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.934008121490479</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.198056221008301</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.638787887056753</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.662297644849397</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>24_outdoor_long_walk</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>43.01806259155273</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61.48711776733398</v>
+      </c>
+      <c r="E5" t="n">
+        <v>73.64038848876953</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.993957042694092</v>
+      </c>
+      <c r="G5" t="n">
+        <v>98.75655364990234</v>
+      </c>
+      <c r="H5" t="n">
+        <v>342.4422912597656</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.250729084014893</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.00239849090576</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.146560615138903</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.311121674486033</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27_indoor_walk_off_mvs</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31.65267753601074</v>
+      </c>
+      <c r="D6" t="n">
+        <v>47.22005462646484</v>
+      </c>
+      <c r="E6" t="n">
+        <v>54.27660369873047</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.260169982910156</v>
+      </c>
+      <c r="G6" t="n">
+        <v>83.30909729003906</v>
+      </c>
+      <c r="H6" t="n">
+        <v>310.479736328125</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.18628191947937</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.10736656188965</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7893057770982174</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.34692685657266</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>28_outdoor_walk_lunges</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>41.55994415283203</v>
+      </c>
+      <c r="D7" t="n">
+        <v>61.24626922607422</v>
+      </c>
+      <c r="E7" t="n">
+        <v>69.64527130126953</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.619699954986572</v>
+      </c>
+      <c r="G7" t="n">
+        <v>174.3026580810547</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1002.114685058594</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.26282691955566</v>
+      </c>
+      <c r="J7" t="n">
+        <v>25.29761505126953</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.202426046525859</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.471487642743396</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>29_outdoor_stairs_up</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33.53458786010742</v>
+      </c>
+      <c r="D8" t="n">
+        <v>47.28411483764648</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50.52979278564453</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.979043245315552</v>
+      </c>
+      <c r="G8" t="n">
+        <v>213.1335144042969</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1169.555053710938</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.87699222564697</v>
+      </c>
+      <c r="J8" t="n">
+        <v>34.28348922729492</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.281190799078603</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.528315654360886</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>30_outdoor_stairs_down</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36.71791839599609</v>
+      </c>
+      <c r="D9" t="n">
+        <v>49.08229827880859</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54.65577697753906</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.539266586303711</v>
+      </c>
+      <c r="G9" t="n">
+        <v>138.4689178466797</v>
+      </c>
+      <c r="H9" t="n">
+        <v>380.4460144042969</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.815528392791748</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15.72080993652344</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.097455851030594</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.180521290242158</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>35_indoor_walk</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30.78839111328125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45.38986587524414</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50.67109680175781</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.431593179702759</v>
+      </c>
+      <c r="G10" t="n">
+        <v>93.37965393066406</v>
+      </c>
+      <c r="H10" t="n">
+        <v>286.0622253417969</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.435635805130005</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9.84979248046875</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.766053129074832</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7410191592342183</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>36_outdoor_long_walk</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>36.10221862792969</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.48115539550781</v>
+      </c>
+      <c r="E11" t="n">
+        <v>58.98352813720703</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.996474266052246</v>
+      </c>
+      <c r="G11" t="n">
+        <v>197.6063537597656</v>
+      </c>
+      <c r="H11" t="n">
+        <v>561.1235961914062</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.904737949371338</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.70315933227539</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.338222216388456</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.825656469879373</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>37_outdoor_run_circle</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>37.00597381591797</v>
+      </c>
+      <c r="D12" t="n">
+        <v>48.87093734741211</v>
+      </c>
+      <c r="E12" t="n">
+        <v>57.36535263061523</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.822107315063477</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62.83869934082031</v>
+      </c>
+      <c r="H12" t="n">
+        <v>147.4345703125</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4561164081096649</v>
+      </c>
+      <c r="J12" t="n">
+        <v>13.5360107421875</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.07854345752630024</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1032134407199651</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>40_indoor_walk_big_circle</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>36.35754776000977</v>
+      </c>
+      <c r="D13" t="n">
+        <v>73.44145965576172</v>
+      </c>
+      <c r="E13" t="n">
+        <v>83.44533538818359</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.404499053955078</v>
+      </c>
+      <c r="G13" t="n">
+        <v>129.0976715087891</v>
+      </c>
+      <c r="H13" t="n">
+        <v>391.6371765136719</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.004981279373169</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10.58969211578369</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5723011001599743</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.520284113089257</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>48_outdoor_walk_downhill</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>36.9577751159668</v>
+      </c>
+      <c r="D14" t="n">
+        <v>71.364990234375</v>
+      </c>
+      <c r="E14" t="n">
+        <v>79.63278198242188</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.987997531890869</v>
+      </c>
+      <c r="G14" t="n">
+        <v>280.2928466796875</v>
+      </c>
+      <c r="H14" t="n">
+        <v>719.3255615234375</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.658907890319824</v>
+      </c>
+      <c r="J14" t="n">
+        <v>16.21188926696777</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.974948285607839</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.191075534674099</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>49_outdoor_big_stairs_down</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>51.33623504638672</v>
+      </c>
+      <c r="D15" t="n">
+        <v>88.48582458496094</v>
+      </c>
+      <c r="E15" t="n">
+        <v>101.1795425415039</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.71514368057251</v>
+      </c>
+      <c r="G15" t="n">
+        <v>140.4246063232422</v>
+      </c>
+      <c r="H15" t="n">
+        <v>263.6373901367188</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.778606414794922</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8.402544021606445</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2093350870456296</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.9253002741283064</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>55_outdoor_walk</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>42.43554306030273</v>
+      </c>
+      <c r="D16" t="n">
+        <v>72.22463989257812</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.96864318847656</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.023480415344238</v>
+      </c>
+      <c r="G16" t="n">
+        <v>71.51805114746094</v>
+      </c>
+      <c r="H16" t="n">
+        <v>257.3040771484375</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.242247581481934</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9.224917411804199</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.6302747334557589</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.097331463473298</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>56_outdoor_stairs_up_down</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>39.5032844543457</v>
+      </c>
+      <c r="D17" t="n">
+        <v>72.01612091064453</v>
+      </c>
+      <c r="E17" t="n">
+        <v>83.64481353759766</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.062256813049316</v>
+      </c>
+      <c r="G17" t="n">
+        <v>117.8202896118164</v>
+      </c>
+      <c r="H17" t="n">
+        <v>329.2464599609375</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.61320686340332</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13.1905517578125</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4832473623459178</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5942616212364882</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>57_outdoor_rock_chair</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>41.72327041625977</v>
+      </c>
+      <c r="D18" t="n">
+        <v>69.35671997070312</v>
+      </c>
+      <c r="E18" t="n">
+        <v>81.72373199462891</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.666821479797363</v>
+      </c>
+      <c r="G18" t="n">
+        <v>99.9173583984375</v>
+      </c>
+      <c r="H18" t="n">
+        <v>209.62939453125</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.138732075691223</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.672351837158203</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2674944172635536</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3654990729773315</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>58_outdoor_parcours</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>39.15556335449219</v>
+      </c>
+      <c r="D19" t="n">
+        <v>66.32810211181641</v>
+      </c>
+      <c r="E19" t="n">
+        <v>79.55320739746094</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7.309549808502197</v>
+      </c>
+      <c r="G19" t="n">
+        <v>156.9424133300781</v>
+      </c>
+      <c r="H19" t="n">
+        <v>505.77685546875</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.292850494384766</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14.87286186218262</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.057965172203484</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.060905714710901</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>61_outdoor_sit_lie_walk</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>44.74185943603516</v>
+      </c>
+      <c r="D20" t="n">
+        <v>76.30595397949219</v>
+      </c>
+      <c r="E20" t="n">
+        <v>89.81327056884766</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.023063182830811</v>
+      </c>
+      <c r="G20" t="n">
+        <v>134.0359344482422</v>
+      </c>
+      <c r="H20" t="n">
+        <v>340.7135925292969</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.847318649291992</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10.06389141082764</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9549700563226413</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.283837738224757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>64_outdoor_skateboard</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>46.65358352661133</v>
+      </c>
+      <c r="D21" t="n">
+        <v>77.70427703857422</v>
+      </c>
+      <c r="E21" t="n">
+        <v>88.69877624511719</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.481054306030273</v>
+      </c>
+      <c r="G21" t="n">
+        <v>81.39905548095703</v>
+      </c>
+      <c r="H21" t="n">
+        <v>246.3557434082031</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8538432717323303</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7.880440711975098</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.4886895183182411</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.4986638516502563</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>65_outdoor_walk_straight</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31.88931655883789</v>
+      </c>
+      <c r="D22" t="n">
+        <v>73.09838104248047</v>
+      </c>
+      <c r="E22" t="n">
+        <v>80.00541687011719</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.272486209869385</v>
+      </c>
+      <c r="G22" t="n">
+        <v>257.0940856933594</v>
+      </c>
+      <c r="H22" t="n">
+        <v>782.201416015625</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.301873207092285</v>
+      </c>
+      <c r="J22" t="n">
+        <v>14.18154239654541</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.912125345135559</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.568479830412298</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>77_outdoor_stairs_up</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>33.87751007080078</v>
+      </c>
+      <c r="D23" t="n">
+        <v>61.79091262817383</v>
+      </c>
+      <c r="E23" t="n">
+        <v>70.08090209960938</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.637044429779053</v>
+      </c>
+      <c r="G23" t="n">
+        <v>77.41542816162109</v>
+      </c>
+      <c r="H23" t="n">
+        <v>176.7646026611328</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9675334692001343</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9.073410034179688</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1772036859864663</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.1782880757604828</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>78_outdoor_stairs_up_down</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>37.14675140380859</v>
+      </c>
+      <c r="D24" t="n">
+        <v>64.49644470214844</v>
+      </c>
+      <c r="E24" t="n">
+        <v>75.74825286865234</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5.207028388977051</v>
+      </c>
+      <c r="G24" t="n">
+        <v>105.7957077026367</v>
+      </c>
+      <c r="H24" t="n">
+        <v>287.7638244628906</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.136324048042297</v>
+      </c>
+      <c r="J24" t="n">
+        <v>13.65735530853271</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2712173801764771</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.2914751368109442</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>79_outdoor_walk_rectangle</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30.42371559143066</v>
+      </c>
+      <c r="D25" t="n">
+        <v>56.07848739624023</v>
+      </c>
+      <c r="E25" t="n">
+        <v>65.719482421875</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.915863513946533</v>
+      </c>
+      <c r="G25" t="n">
+        <v>60.35683059692383</v>
+      </c>
+      <c r="H25" t="n">
+        <v>269.0662841796875</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.465651988983154</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12.34742832183838</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3227050110258773</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.21997574723318</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>80_outdoor_walk_big_circle</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>32.44199752807617</v>
+      </c>
+      <c r="D26" t="n">
+        <v>64.22435760498047</v>
+      </c>
+      <c r="E26" t="n">
+        <v>75.05961608886719</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.731936931610107</v>
+      </c>
+      <c r="G26" t="n">
+        <v>84.71080780029297</v>
+      </c>
+      <c r="H26" t="n">
+        <v>345.716552734375</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.203749299049377</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13.75554752349854</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.108625074446102</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.342535862604919</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>38.1435546875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>63.0703125</v>
+      </c>
+      <c r="E27" t="n">
+        <v>73.24900054931641</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.664289474487305</v>
+      </c>
+      <c r="G27" t="n">
+        <v>123.6333541870117</v>
+      </c>
+      <c r="H27" t="n">
+        <v>403.1471862792969</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.94201922416687</v>
+      </c>
+      <c r="J27" t="n">
+        <v>12.47898006439209</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.067103598579192</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.147622262293233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
